--- a/Documents/Work Plan.xlsx
+++ b/Documents/Work Plan.xlsx
@@ -5,36 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0e23db62feec2a5d/Desktop/Datasets/KPMG_Virtual_Internship_Challenge/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Navy's class\Datasets\KPMG_Virtual_Internship_Challenge\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BF98FFB-5AFD-453D-8F8B-91790B1A712D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD01740-650E-4CF1-8F64-DF2B67B20E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E5536037-9EFD-483A-9ABC-DB0E63419F41}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E5536037-9EFD-483A-9ABC-DB0E63419F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+  <si>
+    <t>Demographic, Addresses, Transactions</t>
+  </si>
+  <si>
+    <t>Phase 1:</t>
+  </si>
+  <si>
+    <t>Exploration</t>
+  </si>
   <si>
     <t>Data Gathering</t>
   </si>
@@ -45,16 +45,28 @@
     <t>Data Transformation</t>
   </si>
   <si>
+    <t>Feature Engineering</t>
+  </si>
+  <si>
+    <t>Preprocessing with all features</t>
+  </si>
+  <si>
+    <t>Feature Extraction</t>
+  </si>
+  <si>
     <t>Data Exploration</t>
   </si>
   <si>
-    <t>Feature Engineering</t>
-  </si>
-  <si>
-    <t>Phase 1:</t>
-  </si>
-  <si>
-    <t>Exploration</t>
+    <t>(replace/ remove missing data, noises, inconsistencies,  remove duplicates, filter outliers, etc.)</t>
+  </si>
+  <si>
+    <t>( Pivot,  normalization, discretization/ binning, aggregation)</t>
+  </si>
+  <si>
+    <t>( Dimension reduction - PCA, Feature Selection)</t>
+  </si>
+  <si>
+    <t>( Stats, Correlations, Distribution, Clutering, etc.)</t>
   </si>
   <si>
     <t>Phase 2:</t>
@@ -75,74 +87,81 @@
     <t>Best Model Selection &amp; Tuning</t>
   </si>
   <si>
-    <t>Interpretation</t>
+    <t>Deploy and Serve Model (Optional)</t>
+  </si>
+  <si>
+    <t>(Classification, Logistic Regression)</t>
+  </si>
+  <si>
+    <t>(Train-test split)</t>
+  </si>
+  <si>
+    <t>(K-fold cross validation, Confusion matrix, accuracy, recall, precision, F1 score, AUC/ROC)</t>
+  </si>
+  <si>
+    <t>(Gridsearch tuning)</t>
+  </si>
+  <si>
+    <t>Phase 3:</t>
+  </si>
+  <si>
+    <t>Results Evaluation on New Customer set</t>
   </si>
   <si>
     <t>Dashboard Visualizations</t>
   </si>
   <si>
-    <t>Additional data</t>
-  </si>
-  <si>
-    <t>( Stats, Correlations, Distribution, Clutering, etc.)</t>
-  </si>
-  <si>
-    <t>( Age, rolling average, monthly/ yearly/ quarterly sales, active customers, new customers, etc.)</t>
-  </si>
-  <si>
-    <t>( Dimension reduction - PCA, Feature Selection)</t>
-  </si>
-  <si>
-    <t>Feature Extraction</t>
-  </si>
-  <si>
-    <t>(Gridsearch tuning)</t>
-  </si>
-  <si>
-    <t>Deploy and Serve Model (Optional)</t>
-  </si>
-  <si>
     <t>(Power BI)</t>
   </si>
   <si>
-    <t>Phase 3:</t>
-  </si>
-  <si>
     <t>Report</t>
   </si>
   <si>
-    <t>(Classification, Logistic Regression)</t>
-  </si>
-  <si>
-    <t>Preprocessing</t>
-  </si>
-  <si>
-    <t>(Feature scaling, get_dummies)</t>
-  </si>
-  <si>
-    <t>(Train-test split)</t>
-  </si>
-  <si>
-    <t>(K-fold cross validation, Confusion matrix, accuracy, recall, precision, F1 score, AUC/ROC)</t>
-  </si>
-  <si>
-    <t>Results Evaluation on New Customer set</t>
-  </si>
-  <si>
-    <t>Demographic, Addresses, Transactions</t>
-  </si>
-  <si>
-    <t>( Pivot,  normalization, discretization/ binning, aggregation)</t>
-  </si>
-  <si>
-    <t>(replace/ remove missing data, noises, inconsistencies,  remove duplicates, filter outliers, etc.)</t>
+    <t>Rescale remaining features</t>
+  </si>
+  <si>
+    <t>Dashboard Visualization on Training data</t>
+  </si>
+  <si>
+    <t>( 3 dashboards: Customers, Purchases, Time-series)</t>
+  </si>
+  <si>
+    <t>( Customers age, generation, order_profit, recency, frequency, loyalty, etc.)</t>
+  </si>
+  <si>
+    <t>Need more
+ features ?</t>
+  </si>
+  <si>
+    <t>(Comebine all datasets, drop irrelevant columns,  feature Scaling, get dummies)</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>...</t>
+  </si>
+  <si>
+    <t>(Optional)</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
+  <si>
+    <t>Results Interpretation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,8 +184,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,8 +235,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -249,28 +281,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="medium">
+        <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="medium">
+        <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -358,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -366,15 +387,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -393,6 +405,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -402,19 +438,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,40 +465,40 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -480,13 +522,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>320040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>605589</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>320842</xdr:rowOff>
@@ -533,13 +575,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>7219</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>324051</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>597568</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>324853</xdr:rowOff>
@@ -586,13 +628,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>320041</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>605589</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>320843</xdr:rowOff>
@@ -639,13 +681,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>11229</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>303999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>601578</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>304801</xdr:rowOff>
@@ -692,13 +734,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>3208</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>303999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>593557</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>304801</xdr:rowOff>
@@ -709,6 +751,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98C33091-2BD5-4E23-9D47-5E67BE7E6665}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{41A60190-7150-4E22-B18E-198E094BAEC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -745,13 +790,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>7218</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>295978</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>597567</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>296780</xdr:rowOff>
@@ -798,13 +843,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>24187</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>196330</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>4936</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>197132</xdr:rowOff>
@@ -851,16 +896,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>323022</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -875,8 +920,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2590800" y="563880"/>
-          <a:ext cx="7620" cy="525780"/>
+          <a:off x="2697811" y="686131"/>
+          <a:ext cx="10602" cy="547978"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -904,16 +949,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>587829</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>5443</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -928,8 +973,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2865120" y="556260"/>
-          <a:ext cx="7620" cy="525780"/>
+          <a:off x="2981597" y="677091"/>
+          <a:ext cx="1089" cy="580209"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -957,13 +1002,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>701040</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -1010,16 +1055,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>141193</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>703168</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>143436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>533734</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>25997</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>667912</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>102197</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1027,6 +1072,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81864B5B-3093-41FE-A8E6-D5009FB8350C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2BCA9175-B4A5-45EC-8693-61C08D32645D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1042,8 +1090,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9984440" y="860612"/>
-          <a:ext cx="4659741" cy="4491317"/>
+          <a:off x="6284818" y="6372786"/>
+          <a:ext cx="4526391" cy="4483136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1054,13 +1102,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>310225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>322887</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>320040</xdr:rowOff>
@@ -1107,13 +1155,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>301261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>15005</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
@@ -1160,13 +1208,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>310226</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1110</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>313765</xdr:rowOff>
@@ -1213,13 +1261,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>319191</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>15005</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>322730</xdr:rowOff>
@@ -1266,13 +1314,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>5883</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>309003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>309562</xdr:rowOff>
@@ -1319,13 +1367,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>1276263</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>344104</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>312132</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>344906</xdr:rowOff>
@@ -1336,6 +1384,9 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55295FBB-10E1-492D-960F-E9CB46B28E98}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6B4F6C3D-D2CD-4C08-B11B-AE7D80FEC62C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1350,6 +1401,683 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>3208</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>303999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>593557</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>304801</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEE5B4DC-09D3-47CB-BD87-732B8D685937}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{55295FBB-10E1-492D-960F-E9CB46B28E98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10261633" y="1770849"/>
+          <a:ext cx="323649" cy="802"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1276263</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>344104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312132</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>344906</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF927A6-ACA8-4513-B155-E68FF7490962}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6B4F6C3D-D2CD-4C08-B11B-AE7D80FEC62C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12427967" y="1603061"/>
+          <a:ext cx="316361" cy="802"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>728870</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>10939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1010479</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>255469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8C331B-FDC3-4C05-81C9-1D4851BE76DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3114261" y="1269896"/>
+          <a:ext cx="281609" cy="244530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1171161</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>196469</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1452770</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>242216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B85BD31B-BB9F-4605-BD3D-DAAC058D5FE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4815509" y="1256643"/>
+          <a:ext cx="281609" cy="244530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>319191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15005</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>322730</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B17CD2-2BCE-4B5F-AD4A-2527424EE728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11156674" y="3027604"/>
+          <a:ext cx="205505" cy="3539"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>530087</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>16564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>596347</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="18" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32C6CECE-CB27-4FA0-A6C8-AA3E48D35A97}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2915478" y="2078934"/>
+          <a:ext cx="7595152" cy="803414"/>
+          <a:chOff x="2915478" y="1888434"/>
+          <a:chExt cx="7595152" cy="803414"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Straight Connector 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FC05B3-4D04-45AA-B819-50B36C65402C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="10510630" y="2509630"/>
+            <a:ext cx="0" cy="182218"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="16" name="Connector: Elbow 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEC35858-B6C4-428A-ADDE-1F14CD6913C6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm rot="10800000">
+            <a:off x="2915478" y="1888436"/>
+            <a:ext cx="7595152" cy="621195"/>
+          </a:xfrm>
+          <a:prstGeom prst="bentConnector3">
+            <a:avLst>
+              <a:gd name="adj1" fmla="val 99836"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:prstDash val="dash"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>538367</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>604627</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="378758" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4392A6-9BBD-4D83-B5E3-1602BE2485C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10452650" y="2476497"/>
+          <a:ext cx="378758" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1196007</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>69571</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="350096" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="TextBox 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADCEE3E-6C8F-4F9E-9103-C0C58C97EF83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11110290" y="2777984"/>
+          <a:ext cx="350096" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-CA" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>No</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>630283</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>94706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64FEE71-1584-4D11-BA2F-B9D830E277C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3025140" y="1346563"/>
+          <a:ext cx="447403" cy="3266"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1073332</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>117566</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D9AAFB-1430-4416-AE51-DFA5CED7E750}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5981700" y="1366157"/>
+          <a:ext cx="447403" cy="3266"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>633046</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>105926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>32699</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109192</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BB96814-485A-4CE0-9F5A-D1235200B3C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="2794907"/>
+          <a:ext cx="447403" cy="3266"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1670,255 +2398,566 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB578-D33F-42F5-8932-29E4AB5EF39F}">
-  <dimension ref="A2:N17"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="2"/>
-    <col min="4" max="4" width="17.5546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="5.21875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14.109375" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="2.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="15.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="3" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.28515625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="13.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="2.42578125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="2.7109375" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="D2" s="4" t="s">
+    <row r="1" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+    </row>
+    <row r="2" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+    </row>
+    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="17"/>
+      <c r="I6" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" s="17"/>
+      <c r="O6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T6" s="32"/>
+    </row>
+    <row r="7" spans="1:20" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32"/>
+      <c r="B7" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="12"/>
+      <c r="O7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="T7" s="32"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="D3" s="5" t="s">
+    <row r="8" spans="1:20" s="13" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="34"/>
+    </row>
+    <row r="9" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="5"/>
+      <c r="M9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="R9" s="5"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="32"/>
+    </row>
+    <row r="10" spans="1:20" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="5"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="32"/>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
+    <row r="11" spans="1:20" s="13" customFormat="1" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="34"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="34"/>
     </row>
-    <row r="7" spans="1:14" ht="48.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="7" t="s">
-        <v>3</v>
-      </c>
+    <row r="12" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="39" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="32"/>
     </row>
-    <row r="8" spans="1:14" s="29" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="27"/>
-      <c r="N8" s="28" t="s">
-        <v>16</v>
-      </c>
+    <row r="13" spans="1:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32"/>
+      <c r="B13" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="32"/>
     </row>
-    <row r="9" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="17"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="18"/>
+    <row r="14" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="32"/>
     </row>
-    <row r="10" spans="1:14" ht="52.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="8"/>
-      <c r="N10" s="9" t="s">
-        <v>21</v>
-      </c>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="32"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="32"/>
+      <c r="Q15" s="32"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="32"/>
+      <c r="T15" s="32"/>
     </row>
-    <row r="11" spans="1:14" s="29" customFormat="1" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31" t="s">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="32"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
     </row>
-    <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="21"/>
+    <row r="18" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
     </row>
-    <row r="13" spans="1:14" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="21"/>
+    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="32"/>
+      <c r="R19" s="32"/>
+      <c r="T19" s="32"/>
     </row>
-    <row r="14" spans="1:14" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F17" s="3" t="s">
-        <v>24</v>
-      </c>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T20" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Documents/Work Plan.xlsx
+++ b/Documents/Work Plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Navy's class\Datasets\KPMG_Virtual_Internship_Challenge\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD01740-650E-4CF1-8F64-DF2B67B20E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF40706-480C-483D-940C-9A5CDEC889AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{E5536037-9EFD-483A-9ABC-DB0E63419F41}"/>
+    <workbookView xWindow="-28275" yWindow="0" windowWidth="26895" windowHeight="15480" xr2:uid="{E5536037-9EFD-483A-9ABC-DB0E63419F41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>Demographic, Addresses, Transactions</t>
   </si>
@@ -57,18 +57,6 @@
     <t>Data Exploration</t>
   </si>
   <si>
-    <t>(replace/ remove missing data, noises, inconsistencies,  remove duplicates, filter outliers, etc.)</t>
-  </si>
-  <si>
-    <t>( Pivot,  normalization, discretization/ binning, aggregation)</t>
-  </si>
-  <si>
-    <t>( Dimension reduction - PCA, Feature Selection)</t>
-  </si>
-  <si>
-    <t>( Stats, Correlations, Distribution, Clutering, etc.)</t>
-  </si>
-  <si>
     <t>Phase 2:</t>
   </si>
   <si>
@@ -124,18 +112,12 @@
   </si>
   <si>
     <t>( 3 dashboards: Customers, Purchases, Time-series)</t>
-  </si>
-  <si>
-    <t>( Customers age, generation, order_profit, recency, frequency, loyalty, etc.)</t>
   </si>
   <si>
     <t>Need more
  features ?</t>
   </si>
   <si>
-    <t>(Comebine all datasets, drop irrelevant columns,  feature Scaling, get dummies)</t>
-  </si>
-  <si>
     <t>Module 1</t>
   </si>
   <si>
@@ -155,6 +137,54 @@
   </si>
   <si>
     <t>Results Interpretation</t>
+  </si>
+  <si>
+    <t>( Check data skewness, Stats, Correlations, Distribution, Clutering, etc.)</t>
+  </si>
+  <si>
+    <t>(replace/ remove missing data, remove outliers, noises, inconsistencies,  remove duplicates, filter outliers, etc.)</t>
+  </si>
+  <si>
+    <t>( Customers age, generation, order_profit, recency, frequency, loyalty, time-series features, etc.)</t>
+  </si>
+  <si>
+    <t>(Comebine all datasets, drop irrelevant columns,  Normalization (L1/L2)/ Scaling, get dummies)</t>
+  </si>
+  <si>
+    <t>( Pivot, discretization/ binning (fixed width / quantile-based, aggregation, log/ quantile transform to reduce sknewness, split columns, etc.)</t>
+  </si>
+  <si>
+    <t>( Dimension reduction - PCA, Feature Importances)</t>
+  </si>
+  <si>
+    <t>Binning:</t>
+  </si>
+  <si>
+    <t>https://pbpython.com/pandas-qcut-cut.html</t>
+  </si>
+  <si>
+    <t>Pivot table:</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/docs/user_guide/reshaping.html</t>
+  </si>
+  <si>
+    <t>Aggregation:</t>
+  </si>
+  <si>
+    <t>https://pandas.pydata.org/pandas-docs/stable/reference/api/pandas.DataFrame.aggregate.html</t>
+  </si>
+  <si>
+    <t>Transformation</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/feature-transformation-for-multiple-linear-regression-in-python-8648ddf070b8</t>
+  </si>
+  <si>
+    <t>Transform methods:</t>
+  </si>
+  <si>
+    <t>https://www.marsja.se/transform-skewed-data-using-square-root-log-box-cox-methods-in-python/</t>
   </si>
 </sst>
 </file>
@@ -379,7 +409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -500,6 +530,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1055,16 +1091,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>703168</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>143436</xdr:rowOff>
+      <xdr:rowOff>176566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>667912</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>892396</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>102197</xdr:rowOff>
+      <xdr:rowOff>135327</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1090,8 +1126,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6284818" y="6372786"/>
-          <a:ext cx="4526391" cy="4483136"/>
+          <a:off x="0" y="6280849"/>
+          <a:ext cx="4536744" cy="4721261"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1713,7 +1749,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="2915478" y="2078934"/>
-          <a:ext cx="7595152" cy="803414"/>
+          <a:ext cx="7876760" cy="911088"/>
           <a:chOff x="2915478" y="1888434"/>
           <a:chExt cx="7595152" cy="803414"/>
         </a:xfrm>
@@ -2398,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB5AB578-D33F-42F5-8932-29E4AB5EF39F}">
-  <dimension ref="A1:T20"/>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,7 +2450,7 @@
     <col min="6" max="6" width="3.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="2.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="3" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="1" customWidth="1"/>
@@ -2422,7 +2458,7 @@
     <col min="14" max="14" width="2.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="18.5703125" style="1" customWidth="1"/>
     <col min="16" max="16" width="4.28515625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" style="1" customWidth="1"/>
     <col min="18" max="18" width="2.42578125" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.5703125" style="1" customWidth="1"/>
     <col min="20" max="20" width="2.7109375" style="1" customWidth="1"/>
@@ -2547,35 +2583,35 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="37" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J6" s="17"/>
       <c r="K6" s="36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="L6" s="17"/>
       <c r="M6" s="36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="N6" s="17"/>
       <c r="O6" s="36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R6" s="17"/>
       <c r="S6" s="18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="T6" s="32"/>
     </row>
@@ -2617,11 +2653,11 @@
       </c>
       <c r="R7" s="12"/>
       <c r="S7" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="T7" s="32"/>
     </row>
-    <row r="8" spans="1:20" s="13" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="13" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34"/>
       <c r="B8" s="20"/>
       <c r="C8" s="12"/>
@@ -2629,31 +2665,31 @@
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="12" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="L8" s="12"/>
       <c r="M8" s="12" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N8" s="12"/>
       <c r="O8" s="12" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="R8" s="3"/>
       <c r="S8" s="21" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="T8" s="34"/>
     </row>
@@ -2663,29 +2699,29 @@
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="23"/>
@@ -2694,38 +2730,38 @@
     <row r="10" spans="1:20" ht="52.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32"/>
       <c r="B10" s="22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N10" s="5"/>
       <c r="O10" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="P10" s="5"/>
       <c r="Q10" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="23"/>
@@ -2739,19 +2775,19 @@
       <c r="E11" s="14"/>
       <c r="F11" s="14"/>
       <c r="G11" s="14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H11" s="14"/>
       <c r="I11" s="14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L11" s="14"/>
       <c r="M11" s="14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
@@ -2767,11 +2803,11 @@
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="39" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -2790,18 +2826,18 @@
     <row r="13" spans="1:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32"/>
       <c r="B13" s="26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -2825,7 +2861,7 @@
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="30" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
@@ -2893,7 +2929,7 @@
       <c r="E17" s="32"/>
       <c r="F17" s="32"/>
       <c r="G17" s="35" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H17" s="32"/>
       <c r="I17" s="32"/>
@@ -2909,14 +2945,14 @@
       <c r="S17" s="32"/>
       <c r="T17" s="32"/>
     </row>
-    <row r="18" spans="1:20" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="32"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
       <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="G18" s="33"/>
       <c r="H18" s="32"/>
       <c r="I18" s="32"/>
       <c r="J18" s="32"/>
@@ -2931,29 +2967,137 @@
       <c r="S18" s="32"/>
       <c r="T18" s="32"/>
     </row>
-    <row r="19" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>50</v>
+      </c>
       <c r="T19" s="32"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
       <c r="T20" s="32"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" s="32"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J28" s="42"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J31" s="42"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J34" s="42"/>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J36" s="42"/>
+    </row>
+    <row r="37" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J37" s="42"/>
+    </row>
+    <row r="38" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J38" s="42"/>
+    </row>
+    <row r="39" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J39" s="42"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J40" s="42"/>
+    </row>
+    <row r="41" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J41" s="42"/>
+    </row>
+    <row r="42" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J42" s="42"/>
+    </row>
+    <row r="43" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J43" s="42"/>
+    </row>
+    <row r="44" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J44" s="42"/>
+    </row>
+    <row r="45" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J45" s="42"/>
+    </row>
+    <row r="46" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J46" s="41"/>
+    </row>
+    <row r="47" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J47" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
